--- a/OpenFisca/correspondances_variables.xlsx
+++ b/OpenFisca/correspondances_variables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-30" windowWidth="14955" windowHeight="12855"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="25290" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,13 @@
     <sheet name="TAXIPP" sheetId="3" r:id="rId3"/>
     <sheet name="Feuil1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="247">
   <si>
     <t>id_indiv</t>
   </si>
@@ -558,9 +559,6 @@
     <t>=1 si travaille dans le public</t>
   </si>
   <si>
-    <t>matri</t>
-  </si>
-  <si>
     <t>Individu propriétaire</t>
   </si>
   <si>
@@ -595,6 +593,186 @@
   </si>
   <si>
     <t>Loyer mensuel</t>
+  </si>
+  <si>
+    <t>Intérêts et autre revenus assimilés  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus values </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenus fonciers </t>
+  </si>
+  <si>
+    <t>f2dc</t>
+  </si>
+  <si>
+    <t>f2tr</t>
+  </si>
+  <si>
+    <t>f3vg</t>
+  </si>
+  <si>
+    <t>f4ba</t>
+  </si>
+  <si>
+    <t>Case 2042</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>f2ts</t>
+  </si>
+  <si>
+    <t>f2go</t>
+  </si>
+  <si>
+    <t>Revenus de valeurs mobilières et distributions</t>
+  </si>
+  <si>
+    <t>Autres revenus distribués et revenus des structures soumises hors de France à un régime fiscal privilégié</t>
+  </si>
+  <si>
+    <t>Intérêts imposés au barème</t>
+  </si>
+  <si>
+    <t>Revenus imposables des titres non côtés détenus dans le PEA et distributions perçues via votre entreprise donnant droit à abattement</t>
+  </si>
+  <si>
+    <t>f2fu</t>
+  </si>
+  <si>
+    <t>Revenus des actions et parts donnant droit à abattement</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>Dividendes imposés au barème</t>
+  </si>
+  <si>
+    <t>Plus-values mobilières (regime normal)</t>
+  </si>
+  <si>
+    <t>Revenus fonciers (régime normal) (=case BA)</t>
+  </si>
+  <si>
+    <t>Retraite imposable</t>
+  </si>
+  <si>
+    <t>Chômage imposable</t>
+  </si>
+  <si>
+    <t>activite</t>
+  </si>
+  <si>
+    <t>absent mais imputable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    </t>
+  </si>
+  <si>
+    <t>Enum([u'Actif occupé',  u'Chômeur', u'Étudiant, élève',u'Retraité', u'Autre inactif']), default = 4)),</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>caseT</t>
+  </si>
+  <si>
+    <t>Vous êtes parent isolé au 1er janvier de l'année n-1</t>
+  </si>
+  <si>
+    <t>Personne vivant seule avec des enfants 0-1 (=case T décl. 2042)</t>
+  </si>
+  <si>
+    <t>Personne vivant seule ayant eu des enfants aujourd’hui majeurs ou décédés (=case E-K-L déclaration 2042)</t>
+  </si>
+  <si>
+    <t>caseE</t>
+  </si>
+  <si>
+    <t>caseK</t>
+  </si>
+  <si>
+    <t>caseL</t>
+  </si>
+  <si>
+    <t>Situation pouvant donner droit à une demi-part supplémentaire: enfant élevé seul pendant moins de 5 ans</t>
+  </si>
+  <si>
+    <t>Situation pouvant donner droit à une demi-part supplémentaire: vous avez eu un enfant décédé après l’âge de 16 ans ou par suite de faits de guerre</t>
+  </si>
+  <si>
+    <t>Situation pouvant donner droit à une demi-part supplémentaire: enfant élevé seul pendant plus de 5 ans</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>npac</t>
+  </si>
+  <si>
+    <t>cadre_C ; cadre_D</t>
+  </si>
+  <si>
+    <t>par_rev</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>nmen</t>
+  </si>
+  <si>
+    <t>rev_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">couple </t>
+  </si>
+  <si>
+    <t>npac_C</t>
+  </si>
+  <si>
+    <t>age_enf</t>
+  </si>
+  <si>
+    <t>ISF</t>
+  </si>
+  <si>
+    <t>caseEKL</t>
+  </si>
+  <si>
+    <t>loyer_mensuel_menage</t>
   </si>
   <si>
     <t>scenario</t>
@@ -610,7 +788,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,8 +804,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,6 +858,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -820,7 +1017,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,6 +1057,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,28 +1362,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="5"/>
-    <col min="4" max="4" width="3.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="5"/>
-    <col min="6" max="6" width="50.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16" style="5" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" style="5"/>
+    <col min="6" max="6" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5"/>
+    <col min="8" max="8" width="50.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>153</v>
       </c>
@@ -1170,125 +1397,133 @@
         <v>154</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="L1" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>159</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="5">
+        <v>245</v>
+      </c>
+      <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="21" t="s">
+      <c r="J2" s="6"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="5">
+        <v>246</v>
+      </c>
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="17" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="18" t="s">
+      <c r="J4" s="6"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>52</v>
       </c>
@@ -1296,106 +1531,120 @@
         <v>146</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="15">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="H13" s="25" t="s">
+      <c r="D13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="23"/>
+      <c r="J13" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
         <v>1</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11">
         <v>1</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>7</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="H15" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11">
         <v>1</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="3"/>
+      <c r="I16" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>10</v>
       </c>
@@ -1403,399 +1652,661 @@
         <v>140</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="3"/>
-      <c r="H17" s="10" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="3"/>
+      <c r="J17" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" t="s">
+        <v>214</v>
+      </c>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="10" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="10" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="G22" s="3"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" t="s">
+        <v>212</v>
+      </c>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+      <c r="G27" s="3"/>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27"/>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28"/>
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29"/>
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30"/>
-      <c r="G30"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31"/>
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+      <c r="G32" s="3"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32"/>
-      <c r="G32"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
+      <c r="G33" s="3"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33"/>
-      <c r="G33"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+      <c r="G34" s="3"/>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34"/>
-      <c r="G34"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+      <c r="G35" s="3"/>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+      <c r="G36" s="3"/>
+      <c r="H36"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36"/>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+      <c r="G37" s="3"/>
+      <c r="H37"/>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="10" t="s">
+      <c r="G38" s="3"/>
+      <c r="H38" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="35"/>
+      <c r="C41" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="35"/>
+      <c r="C42" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="C44" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="H39" s="13" t="s">
+      <c r="B45" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45" s="11">
+        <v>1</v>
+      </c>
+      <c r="H45" s="43"/>
+      <c r="I45" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="J45" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="C46" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46" t="s">
+        <v>192</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47" t="s">
+        <v>193</v>
+      </c>
+      <c r="H47" s="42"/>
+      <c r="I47" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="J47" s="13"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F48" s="11">
+        <v>1</v>
+      </c>
+      <c r="H48" s="42"/>
+      <c r="I48" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="J48" s="13"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="F49" s="11">
+        <v>1</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" s="11">
+        <v>1</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J50" s="13"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11">
         <v>1</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="H42" s="19" t="s">
+      <c r="G53" s="3"/>
+      <c r="J53" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="H43" s="19" t="s">
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="3"/>
+      <c r="J54" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="K54" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11">
         <v>1</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="H45" s="13" t="s">
+      <c r="G56" s="3"/>
+      <c r="I56" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="J56" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="11" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11">
         <v>1</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="H46" s="13" t="s">
+      <c r="G57" s="3"/>
+      <c r="I57" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="J57" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="10"/>
+      <c r="C58" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="24"/>
-      <c r="G47" s="10" t="s">
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="G58" s="24"/>
+      <c r="I58" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49" s="2"/>
-      <c r="G49"/>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="G60" s="2"/>
+      <c r="I60"/>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="5">
+      <c r="C61" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="30"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="5">
         <v>1</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H61" t="s">
+        <v>178</v>
+      </c>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="H50"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="5">
+      <c r="D62" s="30"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="5">
         <v>2</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H62" t="s">
+        <v>172</v>
+      </c>
+      <c r="J62"/>
+      <c r="L62" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="30"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H63" t="s">
         <v>173</v>
       </c>
-      <c r="H51"/>
-      <c r="J51" s="32" t="s">
+      <c r="J63"/>
+      <c r="L63" s="42"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="30"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="5">
+        <v>6</v>
+      </c>
+      <c r="H64" t="s">
+        <v>174</v>
+      </c>
+      <c r="J64"/>
+      <c r="L64" s="42"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="33"/>
+      <c r="G65"/>
+      <c r="H65" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="5" t="s">
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F52" t="s">
-        <v>174</v>
-      </c>
-      <c r="H52"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="5">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>175</v>
-      </c>
-      <c r="H53"/>
-      <c r="J53" s="32"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="E54"/>
-      <c r="F54" t="s">
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66" s="5">
+        <v>1</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66" t="s">
         <v>177</v>
       </c>
-      <c r="H54"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="I66" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55" t="s">
-        <v>178</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H55"/>
+      <c r="J66"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="J1:J4"/>
+  <mergeCells count="6">
+    <mergeCell ref="L1:L4"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="L62:L64"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H40:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2515,12 +3026,160 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="31"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OpenFisca/correspondances_variables.xlsx
+++ b/OpenFisca/correspondances_variables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-30" windowWidth="14955" windowHeight="12855" activeTab="1"/>
+    <workbookView xWindow="-30" yWindow="-30" windowWidth="14955" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Malka Guillot:</t>
         </r>
@@ -46,7 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Label absent dans OF : à rajouter</t>
@@ -7011,14 +7011,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -7319,6 +7319,11 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7337,11 +7342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calcul" xfId="1" builtinId="22"/>
@@ -8822,7 +8822,7 @@
       <c r="L113" s="47"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="68" t="s">
+      <c r="A114" s="62" t="s">
         <v>2265</v>
       </c>
       <c r="B114" s="47" t="s">
@@ -10017,7 +10017,7 @@
       <c r="C208" s="48">
         <v>6</v>
       </c>
-      <c r="F208" s="70" t="s">
+      <c r="F208" s="64" t="s">
         <v>2271</v>
       </c>
       <c r="K208" s="47"/>
@@ -11919,7 +11919,7 @@
       <c r="A423" s="56" t="s">
         <v>1274</v>
       </c>
-      <c r="B423" s="69" t="s">
+      <c r="B423" s="63" t="s">
         <v>2132</v>
       </c>
       <c r="C423" s="58">
@@ -11927,10 +11927,10 @@
       </c>
       <c r="D423" s="58"/>
       <c r="E423" s="58"/>
-      <c r="F423" s="69" t="s">
+      <c r="F423" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G423" s="69" t="s">
+      <c r="G423" s="63" t="s">
         <v>1677</v>
       </c>
     </row>
@@ -13133,8 +13133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15020,7 +15020,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="129" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>677</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="130" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>679</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="131" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>681</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>682</v>
       </c>
@@ -15055,7 +15055,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="133" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>685</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="134" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>688</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="135" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>691</v>
       </c>
@@ -15088,7 +15088,10 @@
         <v>693</v>
       </c>
     </row>
-    <row r="136" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>1</v>
+      </c>
       <c r="C136" t="s">
         <v>694</v>
       </c>
@@ -15099,7 +15102,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="137" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>697</v>
       </c>
@@ -15110,7 +15113,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="138" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>700</v>
       </c>
@@ -15118,7 +15121,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="139" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>702</v>
       </c>
@@ -15126,7 +15129,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="140" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>704</v>
       </c>
@@ -15134,7 +15137,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="141" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>706</v>
       </c>
@@ -15151,7 +15154,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="142" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>711</v>
       </c>
@@ -15159,7 +15162,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="143" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>713</v>
       </c>
@@ -15170,7 +15173,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="144" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>715</v>
       </c>
@@ -15434,7 +15437,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="177" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
         <v>781</v>
       </c>
@@ -15442,7 +15445,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="178" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
         <v>782</v>
       </c>
@@ -15450,7 +15453,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="179" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
         <v>784</v>
       </c>
@@ -15458,7 +15461,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="180" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
         <v>786</v>
       </c>
@@ -15466,7 +15469,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="181" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>788</v>
       </c>
@@ -15474,7 +15477,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="182" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>790</v>
       </c>
@@ -15482,7 +15485,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="183" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>792</v>
       </c>
@@ -15490,7 +15493,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="184" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>794</v>
       </c>
@@ -15498,7 +15501,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="185" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>796</v>
       </c>
@@ -15506,7 +15509,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="186" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>798</v>
       </c>
@@ -15514,7 +15517,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="187" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
         <v>800</v>
       </c>
@@ -15525,7 +15528,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="188" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>803</v>
       </c>
@@ -15533,7 +15536,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="189" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>805</v>
       </c>
@@ -15544,7 +15547,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="190" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>808</v>
       </c>
@@ -15555,7 +15558,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="191" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
         <v>811</v>
       </c>
@@ -15563,7 +15566,10 @@
         <v>812</v>
       </c>
     </row>
-    <row r="192" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>1</v>
+      </c>
       <c r="C192" t="s">
         <v>813</v>
       </c>
@@ -18928,7 +18934,7 @@
       <c r="J1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="65" t="s">
         <v>144</v>
       </c>
       <c r="M1" s="15" t="s">
@@ -18936,7 +18942,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="68" t="s">
         <v>156</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -18950,13 +18956,13 @@
         <v>14</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="L2" s="63"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -18970,7 +18976,7 @@
       <c r="H3" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="63"/>
+      <c r="L3" s="66"/>
       <c r="M3" s="16" t="s">
         <v>147</v>
       </c>
@@ -18984,7 +18990,7 @@
         <v>153</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="L4" s="64"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="17" t="s">
         <v>149</v>
       </c>
@@ -19387,7 +19393,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="69" t="s">
         <v>95</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -19397,7 +19403,7 @@
         <v>220</v>
       </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="66" t="s">
+      <c r="H40" s="69" t="s">
         <v>213</v>
       </c>
       <c r="I40" s="10" t="s">
@@ -19405,7 +19411,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="66"/>
+      <c r="B41" s="69"/>
       <c r="C41" s="5" t="s">
         <v>215</v>
       </c>
@@ -19413,13 +19419,13 @@
         <v>221</v>
       </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="66"/>
+      <c r="H41" s="69"/>
       <c r="I41" s="10" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="66"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="5" t="s">
         <v>216</v>
       </c>
@@ -19427,7 +19433,7 @@
         <v>222</v>
       </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="66"/>
+      <c r="H42" s="69"/>
       <c r="I42" s="10" t="s">
         <v>219</v>
       </c>
@@ -19444,7 +19450,7 @@
       <c r="E44" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H44" s="67" t="s">
+      <c r="H44" s="70" t="s">
         <v>199</v>
       </c>
       <c r="I44" s="10" t="s">
@@ -19462,7 +19468,7 @@
       <c r="F45" s="11">
         <v>1</v>
       </c>
-      <c r="H45" s="67"/>
+      <c r="H45" s="70"/>
       <c r="I45" s="28" t="s">
         <v>196</v>
       </c>
@@ -19476,7 +19482,7 @@
       <c r="E46" t="s">
         <v>189</v>
       </c>
-      <c r="H46" s="66" t="s">
+      <c r="H46" s="69" t="s">
         <v>194</v>
       </c>
       <c r="I46" s="10" t="s">
@@ -19490,7 +19496,7 @@
       <c r="E47" t="s">
         <v>190</v>
       </c>
-      <c r="H47" s="66"/>
+      <c r="H47" s="69"/>
       <c r="I47" s="10" t="s">
         <v>193</v>
       </c>
@@ -19505,7 +19511,7 @@
       <c r="F48" s="11">
         <v>1</v>
       </c>
-      <c r="H48" s="66"/>
+      <c r="H48" s="69"/>
       <c r="I48" s="27" t="s">
         <v>181</v>
       </c>
@@ -19660,7 +19666,7 @@
       <c r="B61" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="66" t="s">
+      <c r="C61" s="69" t="s">
         <v>176</v>
       </c>
       <c r="D61" s="29"/>
@@ -19678,7 +19684,7 @@
       <c r="B62" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="66"/>
+      <c r="C62" s="69"/>
       <c r="D62" s="29"/>
       <c r="E62" s="25"/>
       <c r="F62" s="26"/>
@@ -19689,7 +19695,7 @@
         <v>169</v>
       </c>
       <c r="J62"/>
-      <c r="L62" s="66" t="s">
+      <c r="L62" s="69" t="s">
         <v>172</v>
       </c>
     </row>
@@ -19697,7 +19703,7 @@
       <c r="B63" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="66"/>
+      <c r="C63" s="69"/>
       <c r="D63" s="29"/>
       <c r="E63" s="25"/>
       <c r="F63" s="26"/>
@@ -19708,13 +19714,13 @@
         <v>170</v>
       </c>
       <c r="J63"/>
-      <c r="L63" s="66"/>
+      <c r="L63" s="69"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="66"/>
+      <c r="C64" s="69"/>
       <c r="D64" s="29"/>
       <c r="E64" s="25"/>
       <c r="F64" s="26"/>
@@ -19725,7 +19731,7 @@
         <v>171</v>
       </c>
       <c r="J64"/>
-      <c r="L64" s="66"/>
+      <c r="L64" s="69"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">

--- a/OpenFisca/correspondances_variables.xlsx
+++ b/OpenFisca/correspondances_variables.xlsx
@@ -15,6 +15,7 @@
     <sheet name="input old" sheetId="1" r:id="rId6"/>
     <sheet name="output old" sheetId="5" r:id="rId7"/>
     <sheet name="dico_output" sheetId="9" r:id="rId8"/>
+    <sheet name="arbre_resultat" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">input!$A$1:$A$534</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3565" uniqueCount="2959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="2991">
   <si>
     <t>id_indiv</t>
   </si>
@@ -8960,12 +8961,108 @@
   <si>
     <t xml:space="preserve">aah </t>
   </si>
+  <si>
+    <t>racine</t>
+  </si>
+  <si>
+    <t>var_taxipp</t>
+  </si>
+  <si>
+    <t>csg_crds</t>
+  </si>
+  <si>
+    <t>contri</t>
+  </si>
+  <si>
+    <t>non_contri</t>
+  </si>
+  <si>
+    <t>prestation</t>
+  </si>
+  <si>
+    <t>Revenus du travail et de remplacement</t>
+  </si>
+  <si>
+    <t>SUPERBRUT</t>
+  </si>
+  <si>
+    <t>Taxe sur les salaires et la main d'œuvre</t>
+  </si>
+  <si>
+    <t>Versement transport</t>
+  </si>
+  <si>
+    <t>FNAL, CSA, taxe d'apprentissage, formation continue</t>
+  </si>
+  <si>
+    <t>Taxe sur les salaires</t>
+  </si>
+  <si>
+    <t>BRUT</t>
+  </si>
+  <si>
+    <t>Xbrut</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cotsal_contrib</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cotsal_noncontrib</t>
+  </si>
+  <si>
+    <t>CSG déductible</t>
+  </si>
+  <si>
+    <t>csgXd</t>
+  </si>
+  <si>
+    <t>IMPOSABLE</t>
+  </si>
+  <si>
+    <t>Xi</t>
+  </si>
+  <si>
+    <t>CSG non déductible</t>
+  </si>
+  <si>
+    <t>csgXi</t>
+  </si>
+  <si>
+    <t>crdsX</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>Xnet</t>
+  </si>
+  <si>
+    <t>REVENU DISPONBILE</t>
+  </si>
+  <si>
+    <t>crds_lgt</t>
+  </si>
+  <si>
+    <t>Autres taxes</t>
+  </si>
+  <si>
+    <t>IRPP</t>
+  </si>
+  <si>
+    <t>Revenus du capital et patrimoine</t>
+  </si>
+  <si>
+    <t>Revenus du capital soumis au prélèvement libé</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9082,8 +9179,29 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9146,6 +9264,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9241,7 +9383,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -9387,6 +9529,8 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9405,8 +9549,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Avertissement" xfId="2" builtinId="11"/>
@@ -15199,8 +15403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16145,7 +16349,7 @@
       <c r="C33" t="s">
         <v>449</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="65" t="s">
         <v>137</v>
       </c>
       <c r="G33" t="s">
@@ -16844,7 +17048,7 @@
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C99" s="72" t="s">
+      <c r="C99" s="66" t="s">
         <v>618</v>
       </c>
       <c r="N99" t="s">
@@ -16852,7 +17056,7 @@
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C100" s="72" t="s">
+      <c r="C100" s="66" t="s">
         <v>620</v>
       </c>
       <c r="N100" t="s">
@@ -16877,7 +17081,7 @@
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C102" s="72" t="s">
+      <c r="C102" s="66" t="s">
         <v>626</v>
       </c>
       <c r="N102" t="s">
@@ -16885,7 +17089,7 @@
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C103" s="72" t="s">
+      <c r="C103" s="66" t="s">
         <v>628</v>
       </c>
       <c r="N103" t="s">
@@ -17222,7 +17426,7 @@
       <c r="C138" t="s">
         <v>702</v>
       </c>
-      <c r="D138" s="71" t="s">
+      <c r="D138" s="65" t="s">
         <v>137</v>
       </c>
       <c r="N138" t="s">
@@ -17233,7 +17437,7 @@
       <c r="C139" t="s">
         <v>704</v>
       </c>
-      <c r="D139" s="71" t="s">
+      <c r="D139" s="65" t="s">
         <v>137</v>
       </c>
       <c r="N139" t="s">
@@ -19004,8 +19208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="A9:C11"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21100,7 +21304,7 @@
       <c r="J1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="67" t="s">
         <v>144</v>
       </c>
       <c r="M1" s="15" t="s">
@@ -21108,7 +21312,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="70" t="s">
         <v>156</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -21122,13 +21326,13 @@
         <v>14</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="L2" s="66"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -21142,7 +21346,7 @@
       <c r="H3" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="66"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="16" t="s">
         <v>147</v>
       </c>
@@ -21156,7 +21360,7 @@
         <v>153</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="L4" s="67"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="17" t="s">
         <v>149</v>
       </c>
@@ -21559,7 +21763,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="71" t="s">
         <v>95</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -21569,7 +21773,7 @@
         <v>220</v>
       </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="69" t="s">
+      <c r="H40" s="71" t="s">
         <v>213</v>
       </c>
       <c r="I40" s="10" t="s">
@@ -21577,7 +21781,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="69"/>
+      <c r="B41" s="71"/>
       <c r="C41" s="5" t="s">
         <v>215</v>
       </c>
@@ -21585,13 +21789,13 @@
         <v>221</v>
       </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="69"/>
+      <c r="H41" s="71"/>
       <c r="I41" s="10" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="69"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="5" t="s">
         <v>216</v>
       </c>
@@ -21599,7 +21803,7 @@
         <v>222</v>
       </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="69"/>
+      <c r="H42" s="71"/>
       <c r="I42" s="10" t="s">
         <v>219</v>
       </c>
@@ -21616,7 +21820,7 @@
       <c r="E44" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H44" s="70" t="s">
+      <c r="H44" s="72" t="s">
         <v>199</v>
       </c>
       <c r="I44" s="10" t="s">
@@ -21634,7 +21838,7 @@
       <c r="F45" s="11">
         <v>1</v>
       </c>
-      <c r="H45" s="70"/>
+      <c r="H45" s="72"/>
       <c r="I45" s="28" t="s">
         <v>196</v>
       </c>
@@ -21648,7 +21852,7 @@
       <c r="E46" t="s">
         <v>189</v>
       </c>
-      <c r="H46" s="69" t="s">
+      <c r="H46" s="71" t="s">
         <v>194</v>
       </c>
       <c r="I46" s="10" t="s">
@@ -21662,7 +21866,7 @@
       <c r="E47" t="s">
         <v>190</v>
       </c>
-      <c r="H47" s="69"/>
+      <c r="H47" s="71"/>
       <c r="I47" s="10" t="s">
         <v>193</v>
       </c>
@@ -21677,7 +21881,7 @@
       <c r="F48" s="11">
         <v>1</v>
       </c>
-      <c r="H48" s="69"/>
+      <c r="H48" s="71"/>
       <c r="I48" s="27" t="s">
         <v>181</v>
       </c>
@@ -21832,7 +22036,7 @@
       <c r="B61" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="69" t="s">
+      <c r="C61" s="71" t="s">
         <v>176</v>
       </c>
       <c r="D61" s="29"/>
@@ -21850,7 +22054,7 @@
       <c r="B62" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="69"/>
+      <c r="C62" s="71"/>
       <c r="D62" s="29"/>
       <c r="E62" s="25"/>
       <c r="F62" s="26"/>
@@ -21861,7 +22065,7 @@
         <v>169</v>
       </c>
       <c r="J62"/>
-      <c r="L62" s="69" t="s">
+      <c r="L62" s="71" t="s">
         <v>172</v>
       </c>
     </row>
@@ -21869,7 +22073,7 @@
       <c r="B63" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="69"/>
+      <c r="C63" s="71"/>
       <c r="D63" s="29"/>
       <c r="E63" s="25"/>
       <c r="F63" s="26"/>
@@ -21880,13 +22084,13 @@
         <v>170</v>
       </c>
       <c r="J63"/>
-      <c r="L63" s="69"/>
+      <c r="L63" s="71"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="69"/>
+      <c r="C64" s="71"/>
       <c r="D64" s="29"/>
       <c r="E64" s="25"/>
       <c r="F64" s="26"/>
@@ -21897,7 +22101,7 @@
         <v>171</v>
       </c>
       <c r="J64"/>
-      <c r="L64" s="69"/>
+      <c r="L64" s="71"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
@@ -25962,4 +26166,948 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O116"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.85546875" style="92" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="80" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>2960</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="H1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="N1" t="s">
+        <v>813</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>2966</v>
+      </c>
+      <c r="F3" s="81"/>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>615</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="80"/>
+      <c r="B5" s="83" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="80"/>
+      <c r="B6" s="83" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="84" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B7" s="83"/>
+      <c r="F7" s="80" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="85" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B8" s="83"/>
+      <c r="F8" s="80" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="85" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B9" s="83"/>
+      <c r="F9" s="80" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="85" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B10" s="83"/>
+      <c r="F10" s="80" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="79" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="82" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>622</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>623</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="85"/>
+      <c r="B13" s="85" t="s">
+        <v>2974</v>
+      </c>
+      <c r="F13" s="86"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="85"/>
+      <c r="B14" s="85" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="85" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E15" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F15" s="87"/>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="79" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E16" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="83" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E17" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="83" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E18" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="83" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="79" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D20" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E20" s="80" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F20" s="87"/>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="79" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="88" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="83" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="83" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="83" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="83" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="83" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="83" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="83" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="83" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="88" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="89" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="83" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="83" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B34" s="80" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="83" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="83" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B36" s="80" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="90" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B37" s="87" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="89"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="89" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="83" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B41" s="80" t="s">
+        <v>315</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="83" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B42" s="80" t="s">
+        <v>586</v>
+      </c>
+      <c r="F42" s="86"/>
+    </row>
+    <row r="43" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="83" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B43" s="80" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="83" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B44" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="F44" s="87"/>
+    </row>
+    <row r="45" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="83" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B45" s="91" t="s">
+        <v>895</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="83" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B46" s="91" t="s">
+        <v>914</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="83" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B47" s="91" t="s">
+        <v>903</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="83" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B48" s="91" t="s">
+        <v>912</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="83" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B49" s="91" t="s">
+        <v>910</v>
+      </c>
+      <c r="F49" s="87"/>
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="89" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F50" s="87"/>
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="83" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B51" s="80" t="s">
+        <v>462</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="90" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F52" s="87"/>
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="83" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B53" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="83" t="s">
+        <v>1210</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="83" t="s">
+        <v>1211</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="90" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F56" s="87"/>
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="90" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F57" s="87"/>
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="83" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B58" s="80" t="s">
+        <v>429</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="90" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F63" s="87"/>
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="90" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F64" s="87"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="90" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F65" s="87"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="90" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F66" s="87"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="93" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F67" s="93"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="83" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="77" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B69" s="76"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="77"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="83" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="83" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="83" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="77" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B73" s="76"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="77"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="83" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="83" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="83" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="83" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="83" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="83" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="87"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="83" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B82" s="80" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="83" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B83" s="80" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="83" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="90" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F85" s="87"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="83" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="83" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="83" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="83" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="83" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="83" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="83" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="83" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B93" s="94" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="83" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="83" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="83" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="83" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="83" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="83" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="83" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="83" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="83" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="83" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="83" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="83" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="83" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="83" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="83" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="83" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="83" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="83" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="83" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="83" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="90" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F114" s="87"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="89" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F115" s="86"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="89" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F116" s="86"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OpenFisca/correspondances_variables.xlsx
+++ b/OpenFisca/correspondances_variables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="105" windowWidth="14430" windowHeight="12735" activeTab="8"/>
+    <workbookView xWindow="14385" yWindow="165" windowWidth="14430" windowHeight="12675" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="7" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3797" uniqueCount="3009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3798" uniqueCount="3009">
   <si>
     <t>id_indiv</t>
   </si>
@@ -9621,24 +9621,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9677,6 +9659,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9981,13 +9981,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L522"/>
+  <dimension ref="A1:L523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B452" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B409" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D411" sqref="D411"/>
+      <selection pane="bottomRight" activeCell="F425" sqref="F425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14267,6 +14267,12 @@
       <c r="B420" s="47" t="s">
         <v>160</v>
       </c>
+      <c r="C420" s="48">
+        <v>1</v>
+      </c>
+      <c r="F420" s="47" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="54" t="s">
@@ -14705,15 +14711,6 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="54"/>
-      <c r="C462" s="48">
-        <v>3</v>
-      </c>
-      <c r="F462" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="G462" s="47" t="s">
-        <v>1719</v>
-      </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C463" s="48">
@@ -15392,6 +15389,17 @@
       </c>
       <c r="G522" s="47" t="s">
         <v>1718</v>
+      </c>
+    </row>
+    <row r="523" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C523" s="48">
+        <v>3</v>
+      </c>
+      <c r="F523" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G523" s="47" t="s">
+        <v>1719</v>
       </c>
     </row>
   </sheetData>
@@ -15409,8 +15417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA354"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21375,7 +21383,7 @@
       <c r="J1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="L1" s="94" t="s">
         <v>144</v>
       </c>
       <c r="M1" s="15" t="s">
@@ -21383,7 +21391,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="97" t="s">
         <v>156</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -21397,13 +21405,13 @@
         <v>14</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="L2" s="82"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -21417,7 +21425,7 @@
       <c r="H3" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="82"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="16" t="s">
         <v>147</v>
       </c>
@@ -21431,7 +21439,7 @@
         <v>153</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="L4" s="83"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="17" t="s">
         <v>149</v>
       </c>
@@ -21834,7 +21842,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="98" t="s">
         <v>95</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -21844,7 +21852,7 @@
         <v>220</v>
       </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="85" t="s">
+      <c r="H40" s="98" t="s">
         <v>213</v>
       </c>
       <c r="I40" s="10" t="s">
@@ -21852,7 +21860,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="85"/>
+      <c r="B41" s="98"/>
       <c r="C41" s="5" t="s">
         <v>215</v>
       </c>
@@ -21860,13 +21868,13 @@
         <v>221</v>
       </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="85"/>
+      <c r="H41" s="98"/>
       <c r="I41" s="10" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="85"/>
+      <c r="B42" s="98"/>
       <c r="C42" s="5" t="s">
         <v>216</v>
       </c>
@@ -21874,7 +21882,7 @@
         <v>222</v>
       </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="85"/>
+      <c r="H42" s="98"/>
       <c r="I42" s="10" t="s">
         <v>219</v>
       </c>
@@ -21891,7 +21899,7 @@
       <c r="E44" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H44" s="86" t="s">
+      <c r="H44" s="99" t="s">
         <v>199</v>
       </c>
       <c r="I44" s="10" t="s">
@@ -21909,7 +21917,7 @@
       <c r="F45" s="11">
         <v>1</v>
       </c>
-      <c r="H45" s="86"/>
+      <c r="H45" s="99"/>
       <c r="I45" s="28" t="s">
         <v>196</v>
       </c>
@@ -21923,7 +21931,7 @@
       <c r="E46" t="s">
         <v>189</v>
       </c>
-      <c r="H46" s="85" t="s">
+      <c r="H46" s="98" t="s">
         <v>194</v>
       </c>
       <c r="I46" s="10" t="s">
@@ -21937,7 +21945,7 @@
       <c r="E47" t="s">
         <v>190</v>
       </c>
-      <c r="H47" s="85"/>
+      <c r="H47" s="98"/>
       <c r="I47" s="10" t="s">
         <v>193</v>
       </c>
@@ -21952,7 +21960,7 @@
       <c r="F48" s="11">
         <v>1</v>
       </c>
-      <c r="H48" s="85"/>
+      <c r="H48" s="98"/>
       <c r="I48" s="27" t="s">
         <v>181</v>
       </c>
@@ -22107,7 +22115,7 @@
       <c r="B61" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="85" t="s">
+      <c r="C61" s="98" t="s">
         <v>176</v>
       </c>
       <c r="D61" s="29"/>
@@ -22125,7 +22133,7 @@
       <c r="B62" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="85"/>
+      <c r="C62" s="98"/>
       <c r="D62" s="29"/>
       <c r="E62" s="25"/>
       <c r="F62" s="26"/>
@@ -22136,7 +22144,7 @@
         <v>169</v>
       </c>
       <c r="J62"/>
-      <c r="L62" s="85" t="s">
+      <c r="L62" s="98" t="s">
         <v>172</v>
       </c>
     </row>
@@ -22144,7 +22152,7 @@
       <c r="B63" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="85"/>
+      <c r="C63" s="98"/>
       <c r="D63" s="29"/>
       <c r="E63" s="25"/>
       <c r="F63" s="26"/>
@@ -22155,13 +22163,13 @@
         <v>170</v>
       </c>
       <c r="J63"/>
-      <c r="L63" s="85"/>
+      <c r="L63" s="98"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="85"/>
+      <c r="C64" s="98"/>
       <c r="D64" s="29"/>
       <c r="E64" s="25"/>
       <c r="F64" s="26"/>
@@ -22172,7 +22180,7 @@
         <v>171</v>
       </c>
       <c r="J64"/>
-      <c r="L64" s="85"/>
+      <c r="L64" s="98"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
@@ -26243,8 +26251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -26259,25 +26267,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="81" t="s">
         <v>2250</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="81" t="s">
         <v>2957</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="82" t="s">
         <v>2978</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="81" t="s">
         <v>2958</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="82" t="s">
         <v>1738</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="83" t="s">
         <v>2979</v>
       </c>
     </row>
@@ -26500,7 +26508,7 @@
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76"/>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="84" t="s">
         <v>2965</v>
       </c>
       <c r="C15" s="77"/>
@@ -26517,7 +26525,7 @@
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76"/>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="84" t="s">
         <v>2966</v>
       </c>
       <c r="C16" s="71"/>
@@ -26873,7 +26881,7 @@
       <c r="A36" s="74" t="s">
         <v>3002</v>
       </c>
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="85" t="s">
         <v>3003</v>
       </c>
       <c r="C36" s="71" t="s">
@@ -27086,11 +27094,11 @@
       <c r="G49" s="12"/>
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="92" t="s">
+      <c r="A50" s="86" t="s">
         <v>1222</v>
       </c>
-      <c r="B50" s="93"/>
-      <c r="C50" s="93"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
       <c r="D50" s="5" t="s">
         <v>3005</v>
       </c>
@@ -27180,11 +27188,11 @@
       <c r="G55" s="12"/>
     </row>
     <row r="56" spans="1:7" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="92" t="s">
+      <c r="A56" s="86" t="s">
         <v>1205</v>
       </c>
-      <c r="B56" s="93"/>
-      <c r="C56" s="93"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
       <c r="D56" s="5" t="s">
         <v>3005</v>
       </c>
@@ -27502,7 +27510,7 @@
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="94"/>
+      <c r="A78" s="88"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -27510,7 +27518,7 @@
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="94"/>
+      <c r="A79" s="88"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -27518,7 +27526,7 @@
       <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="94"/>
+      <c r="A80" s="88"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -27526,15 +27534,15 @@
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="98"/>
+      <c r="A81" s="92"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="96"/>
+      <c r="F81" s="90"/>
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="94"/>
+      <c r="A82" s="88"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -27542,7 +27550,7 @@
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="94"/>
+      <c r="A83" s="88"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -27550,7 +27558,7 @@
       <c r="F83" s="3"/>
     </row>
     <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="94"/>
+      <c r="A84" s="88"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -27558,15 +27566,15 @@
       <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="98"/>
+      <c r="A85" s="92"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="96"/>
+      <c r="F85" s="90"/>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="94"/>
+      <c r="A86" s="88"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -27574,7 +27582,7 @@
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="94"/>
+      <c r="A87" s="88"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -27582,7 +27590,7 @@
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="94"/>
+      <c r="A88" s="88"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -27590,7 +27598,7 @@
       <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="94"/>
+      <c r="A89" s="88"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -27598,7 +27606,7 @@
       <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="94"/>
+      <c r="A90" s="88"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -27606,7 +27614,7 @@
       <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="94"/>
+      <c r="A91" s="88"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -27614,7 +27622,7 @@
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="94"/>
+      <c r="A92" s="88"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -27622,15 +27630,15 @@
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="94"/>
-      <c r="B93" s="99"/>
+      <c r="A93" s="88"/>
+      <c r="B93" s="93"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="94"/>
+      <c r="A94" s="88"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -27638,7 +27646,7 @@
       <c r="F94" s="3"/>
     </row>
     <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="94"/>
+      <c r="A95" s="88"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -27646,7 +27654,7 @@
       <c r="F95" s="3"/>
     </row>
     <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="94"/>
+      <c r="A96" s="88"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -27654,7 +27662,7 @@
       <c r="F96" s="3"/>
     </row>
     <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="94"/>
+      <c r="A97" s="88"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -27662,7 +27670,7 @@
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="94"/>
+      <c r="A98" s="88"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -27670,7 +27678,7 @@
       <c r="F98" s="3"/>
     </row>
     <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="94"/>
+      <c r="A99" s="88"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -27678,7 +27686,7 @@
       <c r="F99" s="3"/>
     </row>
     <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="94"/>
+      <c r="A100" s="88"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -27686,7 +27694,7 @@
       <c r="F100" s="3"/>
     </row>
     <row r="101" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="94"/>
+      <c r="A101" s="88"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -27694,7 +27702,7 @@
       <c r="F101" s="3"/>
     </row>
     <row r="102" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="94"/>
+      <c r="A102" s="88"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -27702,7 +27710,7 @@
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="94"/>
+      <c r="A103" s="88"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -27710,7 +27718,7 @@
       <c r="F103" s="3"/>
     </row>
     <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="94"/>
+      <c r="A104" s="88"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -27718,7 +27726,7 @@
       <c r="F104" s="3"/>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="94"/>
+      <c r="A105" s="88"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -27726,7 +27734,7 @@
       <c r="F105" s="3"/>
     </row>
     <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="94"/>
+      <c r="A106" s="88"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -27734,7 +27742,7 @@
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="94"/>
+      <c r="A107" s="88"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -27742,7 +27750,7 @@
       <c r="F107" s="3"/>
     </row>
     <row r="108" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="94"/>
+      <c r="A108" s="88"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -27750,7 +27758,7 @@
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="94"/>
+      <c r="A109" s="88"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -27758,7 +27766,7 @@
       <c r="F109" s="3"/>
     </row>
     <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="94"/>
+      <c r="A110" s="88"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -27766,7 +27774,7 @@
       <c r="F110" s="3"/>
     </row>
     <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="94"/>
+      <c r="A111" s="88"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -27774,7 +27782,7 @@
       <c r="F111" s="3"/>
     </row>
     <row r="112" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="94"/>
+      <c r="A112" s="88"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -27782,7 +27790,7 @@
       <c r="F112" s="3"/>
     </row>
     <row r="113" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="94"/>
+      <c r="A113" s="88"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -27790,28 +27798,28 @@
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="98"/>
+      <c r="A114" s="92"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="96"/>
+      <c r="F114" s="90"/>
     </row>
     <row r="115" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="97"/>
+      <c r="A115" s="91"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="95"/>
+      <c r="F115" s="89"/>
     </row>
     <row r="116" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="97"/>
+      <c r="A116" s="91"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="95"/>
+      <c r="F116" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OpenFisca/correspondances_variables.xlsx
+++ b/OpenFisca/correspondances_variables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="165" windowWidth="14430" windowHeight="12675" activeTab="8"/>
+    <workbookView xWindow="14385" yWindow="225" windowWidth="14430" windowHeight="12615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="7" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3798" uniqueCount="3009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="3013">
   <si>
     <t>id_indiv</t>
   </si>
@@ -9110,6 +9110,18 @@
   </si>
   <si>
     <t>patri</t>
+  </si>
+  <si>
+    <t>csp_mo_vt</t>
+  </si>
+  <si>
+    <t>cotpat_transport</t>
+  </si>
+  <si>
+    <t>cotpat_main_d_oeuvre</t>
+  </si>
+  <si>
+    <t>nbsalb</t>
   </si>
 </sst>
 </file>
@@ -9984,10 +9996,10 @@
   <dimension ref="A1:L523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B409" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F425" sqref="F425"/>
+      <selection pane="bottomRight" activeCell="A321" sqref="A321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14271,7 +14283,7 @@
         <v>1</v>
       </c>
       <c r="F420" s="47" t="s">
-        <v>9</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -15415,10 +15427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA354"/>
+  <dimension ref="A1:AA356"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="B302" workbookViewId="0">
+      <selection activeCell="D321" sqref="D321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17055,23 +17067,35 @@
         <v>614</v>
       </c>
       <c r="D98" t="s">
-        <v>615</v>
+        <v>3009</v>
       </c>
       <c r="N98" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>1</v>
+      </c>
       <c r="C99" s="66" t="s">
         <v>617</v>
       </c>
+      <c r="D99" t="s">
+        <v>2976</v>
+      </c>
       <c r="N99" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>1</v>
+      </c>
       <c r="C100" s="66" t="s">
         <v>619</v>
+      </c>
+      <c r="D100" t="s">
+        <v>477</v>
       </c>
       <c r="N100" t="s">
         <v>620</v>
@@ -17081,173 +17105,173 @@
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="66" t="s">
+        <v>3010</v>
+      </c>
+      <c r="D101" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" s="66" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D102" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
         <v>621</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D103" t="s">
         <v>622</v>
       </c>
-      <c r="G101" s="32" t="s">
+      <c r="G103" s="32" t="s">
         <v>623</v>
       </c>
-      <c r="N101" t="s">
+      <c r="N103" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C102" s="66" t="s">
-        <v>625</v>
-      </c>
-      <c r="N102" t="s">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>391</v>
+      </c>
+      <c r="D104" t="s">
+        <v>464</v>
+      </c>
+      <c r="N104" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C103" s="66" t="s">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C105" s="66" t="s">
         <v>627</v>
       </c>
-      <c r="N103" t="s">
+      <c r="N105" t="s">
         <v>628</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>629</v>
-      </c>
-      <c r="N104" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
-        <v>631</v>
-      </c>
-      <c r="N105" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="N106" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="N107" t="s">
-        <v>635</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="N108" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="N109" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="N110" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="N111" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="N112" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="N113" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="N114" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="N115" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="N116" t="s">
-        <v>61</v>
+        <v>649</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
+        <v>650</v>
+      </c>
+      <c r="N117" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>652</v>
+      </c>
+      <c r="N118" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
         <v>653</v>
       </c>
-      <c r="N117" t="s">
+      <c r="N119" t="s">
         <v>654</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118" t="s">
-        <v>655</v>
-      </c>
-      <c r="D118" t="s">
-        <v>656</v>
-      </c>
-      <c r="N118" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B119">
-        <v>1</v>
-      </c>
-      <c r="C119" t="s">
-        <v>658</v>
-      </c>
-      <c r="D119" t="s">
-        <v>659</v>
-      </c>
-      <c r="N119" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
@@ -17255,121 +17279,121 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
+        <v>655</v>
+      </c>
+      <c r="D120" t="s">
+        <v>656</v>
+      </c>
+      <c r="N120" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>658</v>
+      </c>
+      <c r="D121" t="s">
+        <v>659</v>
+      </c>
+      <c r="N121" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
         <v>661</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D122" t="s">
         <v>662</v>
       </c>
-      <c r="N120" t="s">
+      <c r="N122" t="s">
         <v>663</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
-        <v>664</v>
-      </c>
-      <c r="N121" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
-        <v>666</v>
-      </c>
-      <c r="N122" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N123" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="N124" t="s">
-        <v>670</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="N125" t="s">
-        <v>134</v>
+        <v>668</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="N126" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="N127" t="s">
-        <v>675</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="N128" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="N129" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
+        <v>676</v>
+      </c>
+      <c r="N130" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>678</v>
+      </c>
+      <c r="N131" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
         <v>680</v>
       </c>
-      <c r="N130" t="s">
+      <c r="N132" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131" t="s">
-        <v>681</v>
-      </c>
-      <c r="D131" t="s">
-        <v>682</v>
-      </c>
-      <c r="N131" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132" t="s">
-        <v>684</v>
-      </c>
-      <c r="D132" t="s">
-        <v>685</v>
-      </c>
-      <c r="N132" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.25">
@@ -17377,13 +17401,13 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D133" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="N133" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.25">
@@ -17391,13 +17415,13 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D134" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="N134" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.25">
@@ -17405,13 +17429,13 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D135" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="N135" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.25">
@@ -17419,71 +17443,71 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
+        <v>690</v>
+      </c>
+      <c r="D136" t="s">
+        <v>691</v>
+      </c>
+      <c r="N136" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>693</v>
+      </c>
+      <c r="D137" t="s">
+        <v>694</v>
+      </c>
+      <c r="N137" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
         <v>696</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D138" t="s">
         <v>697</v>
       </c>
-      <c r="N136" t="s">
+      <c r="N138" t="s">
         <v>698</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
-        <v>699</v>
-      </c>
-      <c r="N137" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
-        <v>701</v>
-      </c>
-      <c r="D138" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="N138" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
-        <v>703</v>
-      </c>
-      <c r="D139" s="65" t="s">
+        <v>699</v>
+      </c>
+      <c r="N139" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>701</v>
+      </c>
+      <c r="D140" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="N139" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="C140" t="s">
-        <v>705</v>
-      </c>
-      <c r="D140" t="s">
-        <v>706</v>
-      </c>
-      <c r="G140" t="s">
-        <v>707</v>
-      </c>
-      <c r="H140" t="s">
-        <v>708</v>
-      </c>
       <c r="N140" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
-        <v>710</v>
+        <v>703</v>
+      </c>
+      <c r="D141" s="65" t="s">
+        <v>137</v>
       </c>
       <c r="N141" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.25">
@@ -17491,379 +17515,385 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="D142" t="s">
-        <v>102</v>
+        <v>706</v>
+      </c>
+      <c r="G142" t="s">
+        <v>707</v>
+      </c>
+      <c r="H142" t="s">
+        <v>708</v>
       </c>
       <c r="N142" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="N143" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>1</v>
+      </c>
       <c r="C144" t="s">
-        <v>716</v>
+        <v>712</v>
+      </c>
+      <c r="D144" t="s">
+        <v>102</v>
       </c>
       <c r="N144" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="145" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="N145" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="146" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="N146" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="147" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="N147" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="148" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="N148" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="149" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="N149" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="150" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="N150" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="151" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="N151" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="152" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="N152" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="153" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="N153" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="154" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="N154" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="155" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="N155" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="156" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="N156" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="157" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="N157" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="158" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="N158" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="159" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="N159" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="160" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="N160" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="161" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="N161" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="162" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="N162" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="163" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="N163" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="164" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="N164" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="165" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="N165" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="166" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="N166" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="167" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="N167" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="168" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N168" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="169" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="N169" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="170" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="N170" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="171" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="N171" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="172" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="N172" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="173" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="N173" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="174" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="N174" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="175" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N175" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="176" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="N176" t="s">
-        <v>50</v>
+        <v>777</v>
       </c>
     </row>
     <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="N177" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="N178" t="s">
-        <v>784</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="N179" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="N180" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="N181" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="N182" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="N183" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N184" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="N185" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="186" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B186">
-        <v>1</v>
-      </c>
       <c r="C186" t="s">
-        <v>799</v>
-      </c>
-      <c r="D186" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="N186" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="N187" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="188" spans="2:14" x14ac:dyDescent="0.25">
@@ -17871,35 +17901,35 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
+        <v>799</v>
+      </c>
+      <c r="D188" t="s">
+        <v>800</v>
+      </c>
+      <c r="N188" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>802</v>
+      </c>
+      <c r="N189" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
         <v>804</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D190" t="s">
         <v>805</v>
       </c>
-      <c r="N188" t="s">
+      <c r="N190" t="s">
         <v>806</v>
-      </c>
-    </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B189">
-        <v>1</v>
-      </c>
-      <c r="C189" t="s">
-        <v>807</v>
-      </c>
-      <c r="D189" t="s">
-        <v>808</v>
-      </c>
-      <c r="N189" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C190" t="s">
-        <v>810</v>
-      </c>
-      <c r="N190" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="191" spans="2:14" x14ac:dyDescent="0.25">
@@ -17907,372 +17937,369 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="D191" t="s">
-        <v>813</v>
-      </c>
-      <c r="G191" t="s">
-        <v>814</v>
-      </c>
-      <c r="H191" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="N191" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="N192" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
     </row>
     <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>1</v>
+      </c>
       <c r="C193" t="s">
-        <v>819</v>
+        <v>812</v>
+      </c>
+      <c r="D193" t="s">
+        <v>813</v>
+      </c>
+      <c r="G193" t="s">
+        <v>814</v>
+      </c>
+      <c r="H193" t="s">
+        <v>815</v>
       </c>
       <c r="N193" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="N194" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="N195" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="N196" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="N197" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="N198" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="N199" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="N200" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="N201" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="202" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B202">
-        <v>1</v>
-      </c>
       <c r="C202" t="s">
-        <v>837</v>
-      </c>
-      <c r="D202" t="s">
-        <v>838</v>
-      </c>
-      <c r="G202" t="s">
-        <v>839</v>
-      </c>
-      <c r="H202" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="N202" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="N203" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
     </row>
     <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>1</v>
+      </c>
       <c r="C204" t="s">
-        <v>844</v>
+        <v>837</v>
+      </c>
+      <c r="D204" t="s">
+        <v>838</v>
+      </c>
+      <c r="G204" t="s">
+        <v>839</v>
+      </c>
+      <c r="H204" t="s">
+        <v>840</v>
       </c>
       <c r="N204" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="N205" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="N206" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="N207" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="N208" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="209" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="N209" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="210" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="N210" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="211" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="N211" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="212" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="N212" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="213" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="N213" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="214" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="N214" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="215" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="N215" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="216" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="N216" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="217" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="N217" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="218" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
-        <v>872</v>
-      </c>
-      <c r="D218" t="s">
-        <v>59</v>
+        <v>868</v>
       </c>
       <c r="N218" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="219" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="N219" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="220" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
-        <v>876</v>
+        <v>872</v>
+      </c>
+      <c r="D220" t="s">
+        <v>59</v>
       </c>
       <c r="N220" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="221" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="N221" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="222" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="N222" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="223" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="N223" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="224" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="N224" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="225" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="N225" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="226" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="N226" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="227" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="N227" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="228" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
+        <v>888</v>
+      </c>
+      <c r="N228" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>890</v>
+      </c>
+      <c r="N229" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
         <v>892</v>
       </c>
-      <c r="N228" t="s">
+      <c r="N230" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B229">
+    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B231">
         <v>1</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C231" t="s">
         <v>894</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D231" t="s">
         <v>895</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E231" t="s">
         <v>894</v>
       </c>
-      <c r="N229" t="s">
+      <c r="N231" t="s">
         <v>896</v>
-      </c>
-    </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B230">
-        <v>1</v>
-      </c>
-      <c r="C230" t="s">
-        <v>897</v>
-      </c>
-      <c r="D230" t="s">
-        <v>898</v>
-      </c>
-      <c r="E230" t="s">
-        <v>897</v>
-      </c>
-      <c r="N230" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C231" t="s">
-        <v>900</v>
-      </c>
-      <c r="N231" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="232" spans="2:14" x14ac:dyDescent="0.25">
@@ -18280,165 +18307,165 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="D232" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="E232" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="N232" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="233" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="N233" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="234" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>1</v>
+      </c>
       <c r="C234" t="s">
-        <v>907</v>
+        <v>902</v>
+      </c>
+      <c r="D234" t="s">
+        <v>903</v>
+      </c>
+      <c r="E234" t="s">
+        <v>902</v>
       </c>
       <c r="N234" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="235" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="N235" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="236" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="N236" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="237" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
-        <v>913</v>
-      </c>
-      <c r="D237" t="s">
-        <v>915</v>
-      </c>
-      <c r="E237" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="N237" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="238" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
+        <v>911</v>
+      </c>
+      <c r="N238" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>913</v>
+      </c>
+      <c r="D239" t="s">
+        <v>915</v>
+      </c>
+      <c r="E239" t="s">
+        <v>914</v>
+      </c>
+      <c r="N239" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
         <v>917</v>
       </c>
-      <c r="N238" t="s">
+      <c r="N240" t="s">
         <v>918</v>
-      </c>
-    </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C239" s="33" t="s">
-        <v>919</v>
-      </c>
-      <c r="N239" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C240" s="33" t="s">
-        <v>921</v>
-      </c>
-      <c r="N240" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="241" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C241" s="33" t="s">
+        <v>919</v>
+      </c>
+      <c r="N241" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="242" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C242" s="33" t="s">
+        <v>921</v>
+      </c>
+      <c r="N242" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="243" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C243" s="33" t="s">
         <v>923</v>
       </c>
-      <c r="N241" t="s">
+      <c r="N243" t="s">
         <v>924</v>
-      </c>
-    </row>
-    <row r="242" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C242" t="s">
-        <v>925</v>
-      </c>
-      <c r="N242" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="243" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C243" t="s">
-        <v>927</v>
-      </c>
-      <c r="N243" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="244" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="N244" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="245" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
-        <v>930</v>
-      </c>
-      <c r="H245" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="N245" t="s">
-        <v>931</v>
+        <v>69</v>
       </c>
     </row>
     <row r="246" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
-        <v>932</v>
-      </c>
-      <c r="H246" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="N246" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
     </row>
     <row r="247" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B247">
-        <v>1</v>
-      </c>
       <c r="C247" t="s">
-        <v>935</v>
-      </c>
-      <c r="D247" t="s">
-        <v>935</v>
+        <v>930</v>
+      </c>
+      <c r="H247" t="s">
+        <v>942</v>
       </c>
       <c r="N247" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="248" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="H248" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="N248" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="249" spans="2:14" x14ac:dyDescent="0.25">
@@ -18446,544 +18473,544 @@
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="D249" t="s">
-        <v>936</v>
-      </c>
-      <c r="H249" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="N249" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
     </row>
     <row r="250" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C250" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="H250" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="N250" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
     </row>
     <row r="251" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>1</v>
+      </c>
       <c r="C251" t="s">
-        <v>948</v>
+        <v>941</v>
+      </c>
+      <c r="D251" t="s">
+        <v>936</v>
       </c>
       <c r="H251" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="N251" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="252" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C252" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="H252" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="N252" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="253" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C253" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="H253" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="N253" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="254" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C254" t="s">
-        <v>957</v>
-      </c>
-      <c r="G254" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="H254" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="N254" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
     </row>
     <row r="255" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C255" t="s">
-        <v>961</v>
+        <v>954</v>
+      </c>
+      <c r="H255" t="s">
+        <v>955</v>
       </c>
       <c r="N255" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="256" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
-        <v>963</v>
+        <v>957</v>
+      </c>
+      <c r="G256" t="s">
+        <v>958</v>
+      </c>
+      <c r="H256" t="s">
+        <v>959</v>
       </c>
       <c r="N256" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="257" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="N257" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="258" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="N258" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="259" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C259" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="N259" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="260" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C260" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="N260" t="s">
-        <v>70</v>
+        <v>968</v>
       </c>
     </row>
     <row r="261" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="N261" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="262" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="N262" t="s">
-        <v>975</v>
+        <v>70</v>
       </c>
     </row>
     <row r="263" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="N263" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="264" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="N264" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="265" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="N265" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="266" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="N266" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="267" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="N267" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="268" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="N268" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="269" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="N269" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="270" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="N270" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="271" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="N271" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="272" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C272" t="s">
-        <v>737</v>
+        <v>990</v>
       </c>
       <c r="N272" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="273" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C273" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="N273" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="274" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C274" t="s">
-        <v>997</v>
+        <v>737</v>
       </c>
       <c r="N274" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="275" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C275" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="N275" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="276" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C276" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="N276" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="277" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C277" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="N277" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="278" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="N278" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="279" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C279" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="N279" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="280" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C280" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="N280" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="281" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C281" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="N281" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="282" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C282" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="N282" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="283" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C283" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="N283" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="284" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C284" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="N284" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="285" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C285" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="N285" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="286" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C286" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="N286" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="287" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C287" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="N287" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="288" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C288" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N288" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="289" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C289" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N289" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="290" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C290" t="s">
         <v>1025</v>
       </c>
-      <c r="N288" t="s">
+      <c r="N290" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C289" t="s">
+    <row r="291" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C291" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C290" t="s">
+    <row r="292" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C292" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C291" t="s">
+    <row r="293" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C293" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C292" t="s">
+    <row r="294" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C294" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C293" t="s">
+    <row r="295" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C294" t="s">
+    <row r="296" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C296" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C295" t="s">
+    <row r="297" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C296" t="s">
+    <row r="298" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C297" t="s">
+    <row r="299" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C299" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C298" t="s">
+    <row r="300" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C299" t="s">
+    <row r="301" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C301" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C300" t="s">
+    <row r="302" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C302" t="s">
         <v>1038</v>
       </c>
-      <c r="H300" t="s">
+      <c r="H302" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C301" t="s">
+    <row r="303" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C303" t="s">
         <v>1040</v>
       </c>
-      <c r="H301" t="s">
+      <c r="H303" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B302">
+    <row r="304" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B304">
         <v>1</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C304" t="s">
         <v>1042</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D304" t="s">
         <v>1043</v>
       </c>
-      <c r="E302" t="s">
+      <c r="E304" t="s">
         <v>1042</v>
       </c>
-      <c r="H302" t="s">
+      <c r="H304" t="s">
         <v>1044</v>
-      </c>
-    </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C303" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H303" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C304" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H304" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="305" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C305" t="s">
-        <v>1049</v>
+        <v>1045</v>
+      </c>
+      <c r="H305" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="306" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C306" t="s">
-        <v>1050</v>
+        <v>1047</v>
+      </c>
+      <c r="H306" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="307" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C307" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="308" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C308" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="309" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C309" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="310" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C310" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="311" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C311" t="s">
         <v>1053</v>
       </c>
-      <c r="K309" s="80">
+      <c r="K311" s="80">
         <f>151.67*12</f>
         <v>1820.04</v>
       </c>
     </row>
-    <row r="310" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C310" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="311" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C311" t="s">
-        <v>1055</v>
-      </c>
-    </row>
     <row r="312" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C312" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="313" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C313" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="314" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C314" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="315" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C315" t="s">
         <v>1057</v>
       </c>
-      <c r="H313" t="s">
+      <c r="H315" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="314" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B314">
+    <row r="316" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B316">
         <v>1</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C316" t="s">
         <v>1059</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D316" t="s">
         <v>1060</v>
       </c>
-      <c r="E314" t="s">
+      <c r="E316" t="s">
         <v>1059</v>
       </c>
-      <c r="H314" t="s">
+      <c r="H316" t="s">
         <v>1061</v>
-      </c>
-    </row>
-    <row r="315" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B315">
-        <v>1</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D315" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E315" t="s">
-        <v>1062</v>
-      </c>
-      <c r="H315" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="316" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C316" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H316" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="317" spans="2:11" x14ac:dyDescent="0.25">
@@ -18991,40 +19018,49 @@
         <v>1</v>
       </c>
       <c r="C317" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="D317" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="E317" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="H317" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="318" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C318" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="H318" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="319" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B319">
+        <v>1</v>
+      </c>
       <c r="C319" t="s">
-        <v>1073</v>
+        <v>1067</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1068</v>
       </c>
       <c r="H319" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="320" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C320" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="H320" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="321" spans="2:8" x14ac:dyDescent="0.25">
@@ -19032,53 +19068,59 @@
         <v>1</v>
       </c>
       <c r="C321" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D321" t="s">
+        <v>52</v>
+      </c>
+      <c r="H321" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H322" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="323" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323" t="s">
         <v>1077</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D323" t="s">
         <v>1078</v>
       </c>
-      <c r="G321" t="s">
+      <c r="G323" t="s">
         <v>1079</v>
       </c>
-      <c r="H321" t="s">
+      <c r="H323" t="s">
         <v>1080</v>
-      </c>
-    </row>
-    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C322" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="323" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C323" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="324" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C324" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C325" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="326" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C326" t="s">
         <v>1083</v>
-      </c>
-    </row>
-    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B325">
-        <v>1</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D325" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="326" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B326">
-        <v>1</v>
-      </c>
-      <c r="C326" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.25">
@@ -19086,15 +19128,21 @@
         <v>1</v>
       </c>
       <c r="C327" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="D327" t="s">
-        <v>1087</v>
+        <v>50</v>
       </c>
     </row>
     <row r="328" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B328">
+        <v>1</v>
+      </c>
       <c r="C328" t="s">
-        <v>1088</v>
+        <v>1085</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="329" spans="2:8" x14ac:dyDescent="0.25">
@@ -19102,147 +19150,141 @@
         <v>1</v>
       </c>
       <c r="C329" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D329" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="330" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C330" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="332" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C332" t="s">
         <v>1091</v>
-      </c>
-    </row>
-    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C331" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="332" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B332">
-        <v>1</v>
-      </c>
-      <c r="C332" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D332" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="333" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C333" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="334" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B334">
+        <v>1</v>
+      </c>
       <c r="C334" t="s">
-        <v>1096</v>
+        <v>1093</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C335" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C336" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C337" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B338">
-        <v>1</v>
-      </c>
       <c r="C338" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D338" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F338" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C339" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B340">
+        <v>1</v>
+      </c>
       <c r="C340" t="s">
-        <v>1104</v>
+        <v>1100</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F340" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C341" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C342" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C343" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C344" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C345" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C346" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C347" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C348" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C349" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C350" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C351" t="s">
         <v>1113</v>
-      </c>
-    </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B350">
-        <v>1</v>
-      </c>
-      <c r="C350" t="s">
-        <v>627</v>
-      </c>
-      <c r="D350" t="s">
-        <v>2974</v>
-      </c>
-    </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B351">
-        <v>1</v>
-      </c>
-      <c r="C351" t="s">
-        <v>625</v>
-      </c>
-      <c r="D351" t="s">
-        <v>2975</v>
       </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.25">
@@ -19250,10 +19292,10 @@
         <v>1</v>
       </c>
       <c r="C352" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D352" t="s">
-        <v>477</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.25">
@@ -19261,10 +19303,10 @@
         <v>1</v>
       </c>
       <c r="C353" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="D353" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.25">
@@ -19272,9 +19314,31 @@
         <v>1</v>
       </c>
       <c r="C354" t="s">
+        <v>619</v>
+      </c>
+      <c r="D354" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355" t="s">
+        <v>617</v>
+      </c>
+      <c r="D355" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356" t="s">
         <v>600</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D356" t="s">
         <v>53</v>
       </c>
     </row>
@@ -26251,7 +26315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>

--- a/OpenFisca/correspondances_variables.xlsx
+++ b/OpenFisca/correspondances_variables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="405" windowWidth="14430" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="14385" yWindow="585" windowWidth="14430" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="7" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="3015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="3015">
   <si>
     <t>id_indiv</t>
   </si>
@@ -15444,10 +15444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA360"/>
+  <dimension ref="A1:AA362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="B360" sqref="B360"/>
+    <sheetView tabSelected="1" topLeftCell="A297" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15905,6 +15905,9 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="C13" t="s">
         <v>321</v>
       </c>
@@ -15934,6 +15937,9 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
       <c r="C14" t="s">
         <v>327</v>
       </c>
@@ -15963,6 +15969,9 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1</v>
+      </c>
       <c r="C15" t="s">
         <v>336</v>
       </c>
@@ -15992,8 +16001,14 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
       <c r="C16" t="s">
         <v>345</v>
+      </c>
+      <c r="D16" t="s">
+        <v>424</v>
       </c>
       <c r="N16" t="s">
         <v>53</v>
@@ -16571,8 +16586,14 @@
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1</v>
+      </c>
       <c r="C43" t="s">
         <v>493</v>
+      </c>
+      <c r="D43" t="s">
+        <v>591</v>
       </c>
       <c r="N43" t="s">
         <v>494</v>
@@ -17921,7 +17942,7 @@
         <v>796</v>
       </c>
       <c r="D188" t="s">
-        <v>797</v>
+        <v>536</v>
       </c>
       <c r="N188" t="s">
         <v>798</v>
@@ -18263,6 +18284,9 @@
       </c>
     </row>
     <row r="226" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>1</v>
+      </c>
       <c r="C226" t="s">
         <v>881</v>
       </c>
@@ -19018,16 +19042,10 @@
         <v>1</v>
       </c>
       <c r="C316" t="s">
-        <v>1056</v>
+        <v>985</v>
       </c>
       <c r="D316" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E316" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H316" t="s">
-        <v>1058</v>
+        <v>957</v>
       </c>
     </row>
     <row r="317" spans="2:11" x14ac:dyDescent="0.25">
@@ -19035,24 +19053,27 @@
         <v>1</v>
       </c>
       <c r="C317" t="s">
-        <v>1059</v>
+        <v>741</v>
       </c>
       <c r="D317" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E317" t="s">
-        <v>1059</v>
-      </c>
-      <c r="H317" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="318" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B318">
+        <v>1</v>
+      </c>
       <c r="C318" t="s">
-        <v>1062</v>
+        <v>1056</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1056</v>
       </c>
       <c r="H318" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="319" spans="2:11" x14ac:dyDescent="0.25">
@@ -19060,24 +19081,24 @@
         <v>1</v>
       </c>
       <c r="C319" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="D319" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="E319" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="H319" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="320" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C320" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="H320" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="321" spans="2:8" x14ac:dyDescent="0.25">
@@ -19085,27 +19106,24 @@
         <v>1</v>
       </c>
       <c r="C321" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="D321" t="s">
-        <v>52</v>
+        <v>1066</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1065</v>
       </c>
       <c r="H321" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B322">
-        <v>1</v>
-      </c>
       <c r="C322" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D322" t="s">
-        <v>1142</v>
+        <v>1068</v>
       </c>
       <c r="H322" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.25">
@@ -19113,53 +19131,59 @@
         <v>1</v>
       </c>
       <c r="C323" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D323" t="s">
+        <v>52</v>
+      </c>
+      <c r="H323" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="324" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H324" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325" t="s">
         <v>1074</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D325" t="s">
         <v>1075</v>
       </c>
-      <c r="G323" t="s">
+      <c r="G325" t="s">
         <v>1076</v>
       </c>
-      <c r="H323" t="s">
+      <c r="H325" t="s">
         <v>1077</v>
-      </c>
-    </row>
-    <row r="324" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C324" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C325" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="326" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C326" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="327" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C327" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="328" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C328" t="s">
         <v>1080</v>
-      </c>
-    </row>
-    <row r="327" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B327">
-        <v>1</v>
-      </c>
-      <c r="C327" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D327" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="328" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B328">
-        <v>1</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D328" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="329" spans="2:8" x14ac:dyDescent="0.25">
@@ -19167,168 +19191,165 @@
         <v>1</v>
       </c>
       <c r="C329" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D329" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="330" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331" t="s">
         <v>1084</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D331" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="330" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C330" t="s">
+    <row r="332" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C332" t="s">
         <v>3011</v>
-      </c>
-    </row>
-    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C331" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="332" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B332">
-        <v>1</v>
-      </c>
-      <c r="C332" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D332" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="333" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C333" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="334" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="335" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C335" t="s">
         <v>1088</v>
-      </c>
-    </row>
-    <row r="334" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C334" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="335" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B335">
-        <v>1</v>
-      </c>
-      <c r="C335" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D335" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C336" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B337">
+        <v>1</v>
+      </c>
       <c r="C337" t="s">
-        <v>1093</v>
+        <v>1090</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C338" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C339" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C340" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B341">
-        <v>1</v>
-      </c>
       <c r="C341" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D341" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F341" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C342" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C343" t="s">
-        <v>1101</v>
+        <v>1097</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F343" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C344" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C345" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C346" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C347" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C348" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C349" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C350" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C351" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C352" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C353" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C354" t="s">
         <v>1110</v>
-      </c>
-    </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B353">
-        <v>1</v>
-      </c>
-      <c r="C353" t="s">
-        <v>627</v>
-      </c>
-      <c r="D353" t="s">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B354">
-        <v>1</v>
-      </c>
-      <c r="C354" t="s">
-        <v>625</v>
-      </c>
-      <c r="D354" t="s">
-        <v>2972</v>
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.25">
@@ -19336,10 +19357,10 @@
         <v>1</v>
       </c>
       <c r="C355" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D355" t="s">
-        <v>477</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.25">
@@ -19347,10 +19368,10 @@
         <v>1</v>
       </c>
       <c r="C356" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="D356" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.25">
@@ -19358,10 +19379,10 @@
         <v>1</v>
       </c>
       <c r="C357" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="D357" t="s">
-        <v>53</v>
+        <v>477</v>
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.25">
@@ -19369,10 +19390,10 @@
         <v>1</v>
       </c>
       <c r="C358" t="s">
-        <v>3010</v>
+        <v>617</v>
       </c>
       <c r="D358" t="s">
-        <v>468</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.25">
@@ -19380,10 +19401,10 @@
         <v>1</v>
       </c>
       <c r="C359" t="s">
-        <v>3012</v>
+        <v>600</v>
       </c>
       <c r="D359" t="s">
-        <v>888</v>
+        <v>53</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.25">
@@ -19391,9 +19412,31 @@
         <v>1</v>
       </c>
       <c r="C360" t="s">
+        <v>3010</v>
+      </c>
+      <c r="D360" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361" t="s">
+        <v>3012</v>
+      </c>
+      <c r="D361" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362" t="s">
         <v>848</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D362" t="s">
         <v>848</v>
       </c>
     </row>

--- a/OpenFisca/correspondances_variables.xlsx
+++ b/OpenFisca/correspondances_variables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="585" windowWidth="14430" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="14385" yWindow="645" windowWidth="14430" windowHeight="12195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="7" r:id="rId1"/>
@@ -15446,8 +15446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C316" sqref="C316"/>
+    <sheetView tabSelected="1" topLeftCell="B182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17964,7 +17964,7 @@
         <v>801</v>
       </c>
       <c r="D190" t="s">
-        <v>802</v>
+        <v>546</v>
       </c>
       <c r="N190" t="s">
         <v>803</v>
@@ -18517,7 +18517,7 @@
         <v>932</v>
       </c>
       <c r="D249" t="s">
-        <v>932</v>
+        <v>949</v>
       </c>
       <c r="N249" t="s">
         <v>934</v>
@@ -19042,7 +19042,7 @@
         <v>1</v>
       </c>
       <c r="C316" t="s">
-        <v>985</v>
+        <v>547</v>
       </c>
       <c r="D316" t="s">
         <v>957</v>
@@ -26413,8 +26413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA116"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:F31"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>

--- a/OpenFisca/correspondances_variables.xlsx
+++ b/OpenFisca/correspondances_variables.xlsx
@@ -15443,8 +15443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187:D187"/>
+    <sheetView tabSelected="1" topLeftCell="A314" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19221,7 +19221,7 @@
         <v>1</v>
       </c>
       <c r="C332" t="s">
-        <v>1083</v>
+        <v>1128</v>
       </c>
       <c r="D332" t="s">
         <v>1083</v>

--- a/OpenFisca/correspondances_variables.xlsx
+++ b/OpenFisca/correspondances_variables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="645" windowWidth="14430" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="14385" yWindow="705" windowWidth="14430" windowHeight="12135" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="7" r:id="rId1"/>
@@ -15446,8 +15446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView topLeftCell="B311" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G351" sqref="G351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19213,7 +19213,7 @@
         <v>1</v>
       </c>
       <c r="C331" t="s">
-        <v>1084</v>
+        <v>1129</v>
       </c>
       <c r="D331" t="s">
         <v>1084</v>
@@ -26413,8 +26413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA116"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:B66"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>

--- a/OpenFisca/correspondances_variables.xlsx
+++ b/OpenFisca/correspondances_variables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="705" windowWidth="14430" windowHeight="12135" activeTab="8"/>
+    <workbookView xWindow="14385" yWindow="765" windowWidth="14430" windowHeight="12075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="7" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="3015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="3015">
   <si>
     <t>id_indiv</t>
   </si>
@@ -10002,10 +10002,10 @@
   <dimension ref="A1:L523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B442" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B399" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A462" sqref="A462"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15446,8 +15446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA362"/>
   <sheetViews>
-    <sheetView topLeftCell="B311" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G351" sqref="G351"/>
+    <sheetView tabSelected="1" topLeftCell="B98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17249,16 +17249,28 @@
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
+      <c r="B112" s="19">
+        <v>1</v>
+      </c>
+      <c r="C112" s="19" t="s">
         <v>640</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>377</v>
       </c>
       <c r="N112" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
+      <c r="B113" s="19">
+        <v>1</v>
+      </c>
+      <c r="C113" s="19" t="s">
         <v>642</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>388</v>
       </c>
       <c r="N113" t="s">
         <v>643</v>
@@ -17387,16 +17399,28 @@
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
+      <c r="B127" s="19">
+        <v>1</v>
+      </c>
+      <c r="C127" s="19" t="s">
         <v>671</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>264</v>
       </c>
       <c r="N127" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
+      <c r="B128" s="19">
+        <v>1</v>
+      </c>
+      <c r="C128" s="19" t="s">
         <v>672</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>271</v>
       </c>
       <c r="N128" t="s">
         <v>673</v>
@@ -18609,7 +18633,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="257" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
         <v>958</v>
       </c>
@@ -18617,7 +18641,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="258" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
         <v>960</v>
       </c>
@@ -18625,23 +18649,35 @@
         <v>961</v>
       </c>
     </row>
-    <row r="259" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C259" t="s">
+    <row r="259" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B259" s="19">
+        <v>1</v>
+      </c>
+      <c r="C259" s="19" t="s">
         <v>962</v>
+      </c>
+      <c r="D259" s="19" t="s">
+        <v>354</v>
       </c>
       <c r="N259" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="260" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C260" t="s">
+    <row r="260" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B260" s="19">
+        <v>1</v>
+      </c>
+      <c r="C260" s="19" t="s">
         <v>964</v>
+      </c>
+      <c r="D260" s="19" t="s">
+        <v>369</v>
       </c>
       <c r="N260" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="261" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
         <v>966</v>
       </c>
@@ -18649,7 +18685,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="262" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
         <v>968</v>
       </c>
@@ -18657,7 +18693,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="263" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
         <v>969</v>
       </c>
@@ -18665,7 +18701,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="264" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
         <v>971</v>
       </c>
@@ -18673,7 +18709,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="265" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
         <v>973</v>
       </c>
@@ -18681,7 +18717,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="266" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
         <v>975</v>
       </c>
@@ -18689,7 +18725,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="267" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
         <v>977</v>
       </c>
@@ -18697,7 +18733,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="268" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
         <v>979</v>
       </c>
@@ -18705,7 +18741,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="269" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
         <v>981</v>
       </c>
@@ -18713,7 +18749,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="270" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
         <v>983</v>
       </c>
@@ -18721,7 +18757,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="271" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
         <v>985</v>
       </c>
@@ -18729,7 +18765,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="272" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C272" t="s">
         <v>987</v>
       </c>
@@ -26413,7 +26449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
